--- a/excavator_data.xlsx
+++ b/excavator_data.xlsx
@@ -1,34 +1,635 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiminpark/Code/인턴십/AI-proj/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5FD28F-2D3D-F64E-BBD3-13158771984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Excavatorsdata" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Excavator Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="109">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>DX89R-7</t>
+  </si>
+  <si>
+    <t>Operating Weight
+9,518 kg
+Bucket Capacity (SAE HEAPED)
+0.28 m³
+Engine Power (SAE j1349, net)
+48.5/2,100 (kW/rpm)</t>
+  </si>
+  <si>
+    <t>DX55R-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+5,980 kg
+Bucket Capacity (SAE HEAPED)
+0.16 m3
+Engine Power (SAE j1349, net)
+36.4/2,200 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX50Z-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+5,480 kg
+Bucket Capacity (SAE HEAPED)
+0.14 m3
+Engine Power (SAE j1349, net)
+36.4/2,200 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX19Z-7B</t>
+  </si>
+  <si>
+    <t>Operating Weight
+1,995 kg
+Bucket Capacity (SAE HEAPED)
+0.05 m3
+Engine Power (SAE j1349, net)
+10.3 kW (14 ps) @ 2,200 rpm</t>
+  </si>
+  <si>
+    <t>DX27Z-7M (CABIN)</t>
+  </si>
+  <si>
+    <t>Operating Weight
+2,88 ton
+Bucket Capacity (SAE HEAPED)
+0.06 m³
+Engine Power (SAE j1349, net)
+18.4/2,400 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX27Z-7M (CANOPY)</t>
+  </si>
+  <si>
+    <t>Operating Weight
+2.77 ton
+Bucket Capacity (SAE HEAPED)
+0.06 m³
+Engine Power (SAE j1349, net)
+18.4/2,400 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX300LC-7B</t>
+  </si>
+  <si>
+    <t>Operating Weight
+30,800 kg
+Bucket Capacity (SAE HEAPED)
+1.47 - 1.65 ㎥
+Engine Power (SAE j1349, net)
+183kW (260 PS) @ 1,800 rpm (GROSS)</t>
+  </si>
+  <si>
+    <t>DX220LCA-2M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+21,300 kg
+Bucket Capacity (SAE HEAPED)
+0.92 m³
+Engine Power (SAE j1349, net)
+109/1,800 (kW/rpm)</t>
+  </si>
+  <si>
+    <t>DX360LC-7B</t>
+  </si>
+  <si>
+    <t>Operating Weight
+35.9 ton
+Bucket Capacity (SAE HEAPED)
+2.32 m3 H class
+Engine Power (SAE j1349, net)
+210 kW (286 PS) @ 1,800 rpm</t>
+  </si>
+  <si>
+    <t>DX260LC-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+26,000 kg
+Bucket Capacity (SAE HEAPED)
+1.5 m3
+Engine Power (SAE j1349, net)
+140kW (190ps)/2,000 rpm</t>
+  </si>
+  <si>
+    <t>DX220A-2M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+21.3 ton
+Bucket Capacity (SAE HEAPED)
+0.92 m³
+Engine Power (SAE j1349, net)
+109 kW (148 PS) @ 1,800 rpm (SAE J1349, Net)</t>
+  </si>
+  <si>
+    <t>DX235LCR-7</t>
+  </si>
+  <si>
+    <t>Operating Weight
+24.3 ton
+Bucket Capacity (SAE HEAPED)
+0.92 m³
+Engine Power (SAE j1349, net)
+127/1,900 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX530LC-7B</t>
+  </si>
+  <si>
+    <t>Operating Weight
+53,300 kg
+Bucket Capacity (SAE HEAPED)
+3.6 ㎥
+Engine Power (SAE j1349, net)
+294 kW / 2,100 rpm</t>
+  </si>
+  <si>
+    <t>DX490LC-7B</t>
+  </si>
+  <si>
+    <t>Operating Weight
+50,700 kg
+Bucket Capacity (SAE HEAPED)
+2.7 ㎥
+Engine Power (SAE j1349, net)
+294 kW / 2,100 rpm</t>
+  </si>
+  <si>
+    <t>DX530LC-7K</t>
+  </si>
+  <si>
+    <t>Operating Weight
+50.6 ton
+Bucket Capacity (SAE HEAPED)
+2.14 m3
+Engine Power (SAE j1349, net)
+289 kW (387.6 hp)</t>
+  </si>
+  <si>
+    <t>DX350LC-7K</t>
+  </si>
+  <si>
+    <t>Operating Weight
+36,800 kg
+Bucket Capacity (SAE HEAPED)
+1.49 m³
+Engine Power (SAE j1349, net)
+209.1/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX380LC-7K</t>
+  </si>
+  <si>
+    <t>Operating Weight
+40.2 ton
+Bucket Capacity (SAE HEAPED)
+1.25 – 2.32 m³
+Engine Power (SAE j1349, net)
+236.1 kW @ 1,800 rpm</t>
+  </si>
+  <si>
+    <t>DX360LCA-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+37.6 ton
+Bucket Capacity (SAE HEAPED)
+1.25~1.83 m³
+Engine Power (SAE j1349, net)
+233/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX210W-7B</t>
+  </si>
+  <si>
+    <t>Operating Weight
+20,100 kg
+Bucket Capacity (SAE HEAPED)
+0.86 ㎥
+Engine Power (SAE j1349, net)
+121 kW (165 PS, 163 HP) @2,000 rpm</t>
+  </si>
+  <si>
+    <t>DX150W-7B</t>
+  </si>
+  <si>
+    <t>Operating Weight
+13,520 kg
+Bucket Capacity (SAE HEAPED)
+0.76 ㎥
+Engine Power (SAE j1349, net)
+100 kW (136 PS) @ 2,000 rpm</t>
+  </si>
+  <si>
+    <t>DX160W</t>
+  </si>
+  <si>
+    <t>Operating Weight
+-
+Bucket Capacity (SAE HEAPED)
+0.24 m3
+Engine Power (SAE j1349, net)
+99kW(132HP) @ 2,000 rpm</t>
+  </si>
+  <si>
+    <t>DX140W</t>
+  </si>
+  <si>
+    <t>DX190W-7</t>
+  </si>
+  <si>
+    <t>Operating Weight
+18,320 kg
+Bucket Capacity (SAE HEAPED)
+0.8 m³
+Engine Power (SAE j1349, net)
+121/1,900 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX190WA</t>
+  </si>
+  <si>
+    <t>Operating Weight
+18.5~19.86 ton
+Bucket Capacity (SAE HEAPED)
+0.76~0.8 m³
+Engine Power (SAE j1349, net)
+116/1,900 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX35Z-7M (CABIN)</t>
+  </si>
+  <si>
+    <t>Operating Weight
+3,99 ton
+Bucket Capacity (SAE HEAPED)
+0.11 m³
+Engine Power (SAE j1349, net)
+18.4/2,200 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX55-5C</t>
+  </si>
+  <si>
+    <t>Operating Weight
+5.4 ton
+Bucket Capacity (SAE HEAPED)
+0.21 m³
+Engine Power (SAE j1349, net)
+36.2/2,100 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX55W</t>
+  </si>
+  <si>
+    <t>Operating Weight
+5.55 ton
+Bucket Capacity (SAE HEAPED)
+0.175 m³
+Engine Power (SAE j1349, net)
+40.8/2,400 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX63-3</t>
+  </si>
+  <si>
+    <t>Operating Weight
+6,130 kg
+Bucket Capacity (SAE HEAPED)
+0.21 m³
+Engine Power (SAE j1349, net)
+36.2/2,200 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX80R</t>
+  </si>
+  <si>
+    <t>Operating Weight
+8.38 ton
+Bucket Capacity (SAE HEAPED)
+0.28 m³
+Engine Power (SAE j1349, net)
+39.9/2,000 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX140LCR-7</t>
+  </si>
+  <si>
+    <t>Operating Weight
+15.6 ton
+Bucket Capacity (SAE HEAPED)
+0.51 m³
+Engine Power (SAE j1349, net)
+81.6/2,000 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX300LC-7K</t>
+  </si>
+  <si>
+    <t>Operating Weight
+31,600 kg
+Bucket Capacity (SAE HEAPED)
+0.80~1.75 m³
+Engine Power (SAE j1349, net)
+199/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX225LC-7</t>
+  </si>
+  <si>
+    <t>Operating Weight
+23.3 ton
+Bucket Capacity (SAE HEAPED)
+0.92 m3
+Engine Power (SAE j1349, net)
+119/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX200A-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+20.7 ton
+Bucket Capacity (SAE HEAPED)
+0.92 m³
+Engine Power (SAE j1349, net)
+105.3/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX220LC-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+20.8~21.9 ton
+Bucket Capacity (SAE HEAPED)
+0.92~1.17 m³
+Engine Power (SAE j1349, net)
+115/1,900 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX220A-2</t>
+  </si>
+  <si>
+    <t>Operating Weight
+20.8~22 ton
+Bucket Capacity (SAE HEAPED)
+0.92~1.17 m³
+Engine Power (SAE j1349, net)
+148/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX225LC-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+21.7 ton
+Bucket Capacity (SAE HEAPED)
+0.92 m³
+Engine Power (SAE j1349, net)
+125/2,000 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX225LCA-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+21.7 ton
+Bucket Capacity (SAE HEAPED)
+0.92 m³
+Engine Power (SAE j1349, net)
+121/2,000 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX300LC-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+31.8 ton
+Bucket Capacity (SAE HEAPED)
+0.8~1.75 m³
+Engine Power (SAE j1349, net)
+138/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX300LCA-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+31.4 ton
+Bucket Capacity (SAE HEAPED)
+0.8~1.75 m³
+Engine Power (SAE j1349, net)
+138/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX140LC</t>
+  </si>
+  <si>
+    <t>Operating Weight
+14 ton
+Bucket Capacity (SAE HEAPED)
+0.24~0.76 m³
+Engine Power (SAE j1349, net)
+71/1,850 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX140LCA</t>
+  </si>
+  <si>
+    <t>Operating Weight
+14 ton
+Bucket Capacity (SAE HEAPED)
+0.51 m³
+Engine Power (SAE j1349, net)
+74/1,850 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX220LCA-2</t>
+  </si>
+  <si>
+    <t>Operating Weight
+21.3 ton
+Bucket Capacity (SAE HEAPED)
+0.92 m³
+Engine Power (SAE j1349, net)
+109/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX225LL</t>
+  </si>
+  <si>
+    <t>Operating Weight
+29.5 ton
+Bucket Capacity (SAE HEAPED)
+N/A
+Engine Power (SAE j1349, net)
+110/1,900 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX225NLCA</t>
+  </si>
+  <si>
+    <t>Operating Weight
+20.9 ton
+Bucket Capacity (SAE HEAPED)
+0.51~1.28 m³
+Engine Power (SAE j1349, net)
+102/1,900 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX260LCA</t>
+  </si>
+  <si>
+    <t>Operating Weight
+24.8 ton
+Bucket Capacity (SAE HEAPED)
+0.51~1.51 m³
+Engine Power (SAE j1349, net)
+136/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX360LC-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+37.7 ton
+Bucket Capacity (SAE HEAPED)
+1.25~2.32 m³
+Engine Power (SAE j1349, net)
+209/1,900 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX400LC-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+42.1 ton
+Bucket Capacity (SAE HEAPED)
+1.25~1.83 m³
+Engine Power (SAE j1349, net)
+228.4/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX450LCA-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+44.3 ton
+Bucket Capacity (SAE HEAPED)
+1.44~2.16 m³
+Engine Power (SAE j1349, net)
+253/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX490LC-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+51.0 ton
+Bucket Capacity (SAE HEAPED)
+1.71~3.28 m³
+Engine Power (SAE j1349, net)
+289/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX530LC-7M</t>
+  </si>
+  <si>
+    <t>Operating Weight
+53.5 ton
+Bucket Capacity (SAE HEAPED)
+1.94~3.80 m³
+Engine Power (SAE j1349, net)
+289/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX1000LC-7</t>
+  </si>
+  <si>
+    <t>Operating Weight
+97.0~99.5 ton
+Bucket Capacity (SAE HEAPED)
+5.4~6.8 m³
+Engine Power (SAE j1349, net)
+470/2,100 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX800LC-5B</t>
+  </si>
+  <si>
+    <t>Operating Weight
+76.9 ton
+Bucket Capacity (SAE HEAPED)
+3.42 m³
+Engine Power (SAE j1349, net)
+354/1,800 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX210W-7</t>
+  </si>
+  <si>
+    <t>Operating Weight
+21.9 ton
+Bucket Capacity (SAE HEAPED)
+0.86 m³
+Engine Power (SAE j1349, net)
+141.4/1,900 kW/rpm</t>
+  </si>
+  <si>
+    <t>DX210WA</t>
+  </si>
+  <si>
+    <t>Operating Weight
+19.9~20.9 ton
+Bucket Capacity (SAE HEAPED)
+0.51~1.35 m³
+Engine Power (SAE j1349, net)
+120/2,000 kW/rpm</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +648,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,29 +950,2669 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B332"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Info</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>59</v>
+      </c>
+      <c r="B107" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>61</v>
+      </c>
+      <c r="B108" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>65</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>69</v>
+      </c>
+      <c r="B112" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>71</v>
+      </c>
+      <c r="B113" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>75</v>
+      </c>
+      <c r="B115" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>32</v>
+      </c>
+      <c r="B122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>38</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>42</v>
+      </c>
+      <c r="B127" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>47</v>
+      </c>
+      <c r="B130" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>49</v>
+      </c>
+      <c r="B137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>51</v>
+      </c>
+      <c r="B138" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>55</v>
+      </c>
+      <c r="B140" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>57</v>
+      </c>
+      <c r="B141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>59</v>
+      </c>
+      <c r="B148" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>61</v>
+      </c>
+      <c r="B149" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>63</v>
+      </c>
+      <c r="B150" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>65</v>
+      </c>
+      <c r="B151" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>67</v>
+      </c>
+      <c r="B152" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>71</v>
+      </c>
+      <c r="B154" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>73</v>
+      </c>
+      <c r="B155" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>75</v>
+      </c>
+      <c r="B156" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>77</v>
+      </c>
+      <c r="B157" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>79</v>
+      </c>
+      <c r="B158" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>81</v>
+      </c>
+      <c r="B159" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>83</v>
+      </c>
+      <c r="B160" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>85</v>
+      </c>
+      <c r="B161" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>87</v>
+      </c>
+      <c r="B162" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>89</v>
+      </c>
+      <c r="B163" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>26</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>28</v>
+      </c>
+      <c r="B165" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>34</v>
+      </c>
+      <c r="B168" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>36</v>
+      </c>
+      <c r="B169" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>38</v>
+      </c>
+      <c r="B170" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>40</v>
+      </c>
+      <c r="B171" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>42</v>
+      </c>
+      <c r="B172" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>44</v>
+      </c>
+      <c r="B173" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>45</v>
+      </c>
+      <c r="B174" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>47</v>
+      </c>
+      <c r="B175" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>49</v>
+      </c>
+      <c r="B182" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>51</v>
+      </c>
+      <c r="B183" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B184" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>55</v>
+      </c>
+      <c r="B185" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>57</v>
+      </c>
+      <c r="B186" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>22</v>
+      </c>
+      <c r="B191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>59</v>
+      </c>
+      <c r="B193" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>61</v>
+      </c>
+      <c r="B194" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>63</v>
+      </c>
+      <c r="B195" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>65</v>
+      </c>
+      <c r="B196" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>67</v>
+      </c>
+      <c r="B197" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>69</v>
+      </c>
+      <c r="B198" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>71</v>
+      </c>
+      <c r="B199" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>73</v>
+      </c>
+      <c r="B200" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>75</v>
+      </c>
+      <c r="B201" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>77</v>
+      </c>
+      <c r="B202" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>79</v>
+      </c>
+      <c r="B203" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>81</v>
+      </c>
+      <c r="B204" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>83</v>
+      </c>
+      <c r="B205" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>85</v>
+      </c>
+      <c r="B206" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>87</v>
+      </c>
+      <c r="B207" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>89</v>
+      </c>
+      <c r="B208" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>26</v>
+      </c>
+      <c r="B209" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>28</v>
+      </c>
+      <c r="B210" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>30</v>
+      </c>
+      <c r="B211" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>32</v>
+      </c>
+      <c r="B212" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>34</v>
+      </c>
+      <c r="B213" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>36</v>
+      </c>
+      <c r="B214" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>91</v>
+      </c>
+      <c r="B215" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>93</v>
+      </c>
+      <c r="B216" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>95</v>
+      </c>
+      <c r="B217" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>97</v>
+      </c>
+      <c r="B218" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>99</v>
+      </c>
+      <c r="B219" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>101</v>
+      </c>
+      <c r="B220" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>38</v>
+      </c>
+      <c r="B221" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>40</v>
+      </c>
+      <c r="B222" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>42</v>
+      </c>
+      <c r="B223" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>44</v>
+      </c>
+      <c r="B224" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>45</v>
+      </c>
+      <c r="B225" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>47</v>
+      </c>
+      <c r="B226" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>12</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>49</v>
+      </c>
+      <c r="B233" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>51</v>
+      </c>
+      <c r="B234" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>53</v>
+      </c>
+      <c r="B235" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>55</v>
+      </c>
+      <c r="B236" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>57</v>
+      </c>
+      <c r="B237" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>16</v>
+      </c>
+      <c r="B239" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>18</v>
+      </c>
+      <c r="B240" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>24</v>
+      </c>
+      <c r="B243" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>59</v>
+      </c>
+      <c r="B244" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>61</v>
+      </c>
+      <c r="B245" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>63</v>
+      </c>
+      <c r="B246" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>65</v>
+      </c>
+      <c r="B247" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>67</v>
+      </c>
+      <c r="B248" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>69</v>
+      </c>
+      <c r="B249" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>71</v>
+      </c>
+      <c r="B250" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>73</v>
+      </c>
+      <c r="B251" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>75</v>
+      </c>
+      <c r="B252" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>77</v>
+      </c>
+      <c r="B253" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>79</v>
+      </c>
+      <c r="B254" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>81</v>
+      </c>
+      <c r="B255" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>83</v>
+      </c>
+      <c r="B256" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>85</v>
+      </c>
+      <c r="B257" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>87</v>
+      </c>
+      <c r="B258" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>89</v>
+      </c>
+      <c r="B259" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>26</v>
+      </c>
+      <c r="B260" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>28</v>
+      </c>
+      <c r="B261" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>30</v>
+      </c>
+      <c r="B262" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>32</v>
+      </c>
+      <c r="B263" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>34</v>
+      </c>
+      <c r="B264" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>36</v>
+      </c>
+      <c r="B265" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>91</v>
+      </c>
+      <c r="B266" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>93</v>
+      </c>
+      <c r="B267" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>95</v>
+      </c>
+      <c r="B268" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>97</v>
+      </c>
+      <c r="B269" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>99</v>
+      </c>
+      <c r="B270" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>101</v>
+      </c>
+      <c r="B271" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>103</v>
+      </c>
+      <c r="B272" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>38</v>
+      </c>
+      <c r="B273" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>40</v>
+      </c>
+      <c r="B274" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>42</v>
+      </c>
+      <c r="B275" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>44</v>
+      </c>
+      <c r="B276" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>45</v>
+      </c>
+      <c r="B277" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>47</v>
+      </c>
+      <c r="B278" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>2</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>10</v>
+      </c>
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>12</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>49</v>
+      </c>
+      <c r="B285" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>51</v>
+      </c>
+      <c r="B286" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>53</v>
+      </c>
+      <c r="B287" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>55</v>
+      </c>
+      <c r="B288" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>57</v>
+      </c>
+      <c r="B289" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+      <c r="B290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>16</v>
+      </c>
+      <c r="B291" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>18</v>
+      </c>
+      <c r="B292" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>20</v>
+      </c>
+      <c r="B293" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>22</v>
+      </c>
+      <c r="B294" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>24</v>
+      </c>
+      <c r="B295" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>59</v>
+      </c>
+      <c r="B296" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>61</v>
+      </c>
+      <c r="B297" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>63</v>
+      </c>
+      <c r="B298" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>65</v>
+      </c>
+      <c r="B299" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>67</v>
+      </c>
+      <c r="B300" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>69</v>
+      </c>
+      <c r="B301" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>71</v>
+      </c>
+      <c r="B302" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>73</v>
+      </c>
+      <c r="B303" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>75</v>
+      </c>
+      <c r="B304" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>77</v>
+      </c>
+      <c r="B305" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>79</v>
+      </c>
+      <c r="B306" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>81</v>
+      </c>
+      <c r="B307" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>83</v>
+      </c>
+      <c r="B308" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>85</v>
+      </c>
+      <c r="B309" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>87</v>
+      </c>
+      <c r="B310" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>89</v>
+      </c>
+      <c r="B311" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>26</v>
+      </c>
+      <c r="B312" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>28</v>
+      </c>
+      <c r="B313" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>30</v>
+      </c>
+      <c r="B314" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>32</v>
+      </c>
+      <c r="B315" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>34</v>
+      </c>
+      <c r="B316" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>36</v>
+      </c>
+      <c r="B317" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>91</v>
+      </c>
+      <c r="B318" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>93</v>
+      </c>
+      <c r="B319" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>95</v>
+      </c>
+      <c r="B320" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>97</v>
+      </c>
+      <c r="B321" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>99</v>
+      </c>
+      <c r="B322" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>101</v>
+      </c>
+      <c r="B323" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>103</v>
+      </c>
+      <c r="B324" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>38</v>
+      </c>
+      <c r="B325" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>40</v>
+      </c>
+      <c r="B326" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>42</v>
+      </c>
+      <c r="B327" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>44</v>
+      </c>
+      <c r="B328" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>45</v>
+      </c>
+      <c r="B329" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>47</v>
+      </c>
+      <c r="B330" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>105</v>
+      </c>
+      <c r="B331" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>107</v>
+      </c>
+      <c r="B332" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
